--- a/BIO247Project/BIO247ProjectArticles/NCBIGeneDescrData.xlsx
+++ b/BIO247Project/BIO247ProjectArticles/NCBIGeneDescrData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e56c0a1657867c1/Desktop/BIO247/BIO247Project/BIO247ProjectArticles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{A99BD8C3-4805-44B6-8DC4-02A3083CDB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6ADA2799-7C6C-43A5-B165-8DB817441817}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{A99BD8C3-4805-44B6-8DC4-02A3083CDB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81340286-62A4-4974-BFFF-DF1504DA1C59}"/>
   <bookViews>
-    <workbookView xWindow="11535" yWindow="2310" windowWidth="13785" windowHeight="6180" xr2:uid="{92DA8E2D-5AB5-444A-B46A-C041B8D6D55B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{92DA8E2D-5AB5-444A-B46A-C041B8D6D55B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
   <si>
     <t>BAT2</t>
   </si>
@@ -143,9 +143,6 @@
     <t>olfactory receptor family 5 subfamily T member 2</t>
   </si>
   <si>
-    <t>Olfactory receptors interact with odorant molecules in the nose, to initiate a neuronal response that triggers the perception of a smell. The olfactory receptor proteins are members of a large family of G-protein-coupled receptors (GPCR) arising from single coding-exon genes. Olfactory receptors share a 7-transmembrane domain structure with many neurotransmitter and hormone receptors and are responsible for the recognition and G protein-mediated transduction of odorant signals. The olfactory receptor gene family is the largest in the genome. The nomenclature assigned to the olfactory receptor genes and proteins for this organism is independent of other organisms.</t>
-  </si>
-  <si>
     <t>SMTNL1</t>
   </si>
   <si>
@@ -212,17 +209,56 @@
     <t>transmembrane protein 218</t>
   </si>
   <si>
-    <t>Predicted to be located in cilium. Predicted to be integral component of membrane. Implicated in Joubert syndrome</t>
-  </si>
-  <si>
     <t>cilium, membrane</t>
+  </si>
+  <si>
+    <t>diseases</t>
+  </si>
+  <si>
+    <t>bladder papillary urothelial neoplasm</t>
+  </si>
+  <si>
+    <t>chromosome 2p16.1-p15 deletion syndrome</t>
+  </si>
+  <si>
+    <t>Note=TMEM218 mutations result in ciliary dysfunction leading to a broad spectrum of disorders, collectively termed ciliopathies. Overlapping clinical features include retinal degeneration, renal cystic disease, skeletal abnormalities, fibrosis of various organ, and a complex range of anatomical and functional defects of the central and peripheral nervous system. The ciliopathy range of diseases includes Meckel-Gruber syndrome, Bardet-Biedl syndrome, Joubert syndrome, and nephronophtisis among others. Single-locus allelism is insufficient to explain the variable penetrance and expressivity of such disorders, leading to the suggestion that variations across multiple sites of the ciliary proteome influence the clinical outcome</t>
+  </si>
+  <si>
+    <t>Olfactory receptors interact with odorant molecules in the nose, to initiate a neuronal response that triggers the perception of a smell. The olfactory receptor proteins are members of a large family of G-protein-coupled receptors (GPCR) arising from single coding-exon genes. Olfactory receptors share a 7-transmembrane domain structure with many neurotransmitter and hormone receptors and are responsible for the recognition and G protein-mediated transduction of odorant signals. The olfactory receptor gene family is the largest in the genome. The nomenclature assigned to the olfactory receptor genes and proteins for this organism is independent of other organisms. Olfactory receptors interact with odorant molecules in the nose, to initiate a neuronal response that triggers the perception of a smell. The olfactory receptor proteins are members of a large family of G-protein-coupled receptors (GPCR) arising from single coding-exon genes. Olfactory receptors share a 7-transmembrane domain structure with many neurotransmitter and hormone receptors and are responsible for the recognition and G protein-mediated transduction of odorant signals. The olfactory receptor gene family is the largest in the genome. The nomenclature assigned to the olfactory receptor genes and proteins for this organism is independent of other organisms.</t>
+  </si>
+  <si>
+    <t>Joubert Syndrome 39,Mechel Syndrome,hydrolethalus syndrome,ARBD</t>
+  </si>
+  <si>
+    <t>type 1 diabetes,rheumatoid arthritis,multiple sclerosis,neuromyelitis optica spectrum disorder</t>
+  </si>
+  <si>
+    <t>alopecia,Addison disease,Crohn disease,Graves disease,Hashimoto thyroiditis,idiopathic pulmonary fibrosis,juvenile idiopathic arthritis,Lyme disease,multiple sclerosis,narcolepsy,psoriatic arthritis,rheumatoid arthritis,rosacea,type 1 diabetes</t>
+  </si>
+  <si>
+    <t>gout,olecranon bursitis</t>
+  </si>
+  <si>
+    <t>hyperuricemia,gout,nephrolithiasis,fanconi renotubular syndrome 2</t>
+  </si>
+  <si>
+    <t>adrenal gland pheochromocytoma,breast cancer</t>
+  </si>
+  <si>
+    <t>psoriatic arthritis,leprosy 4,myocardial infarction,tonsilitis,toxic shock syndrome</t>
+  </si>
+  <si>
+    <t>deafness,lysosomal storage disease</t>
+  </si>
+  <si>
+    <t>cardiomyopathy,blepharocheilodontic syndrome 2,entropion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +286,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -271,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -283,6 +325,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A22C0B3-AC95-4431-AE14-9C392CEA34F8}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="86" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="51" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +655,7 @@
     <col min="1" max="16384" width="32.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -626,13 +669,16 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="328.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="328.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,10 +692,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -663,10 +712,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -680,10 +732,13 @@
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -697,10 +752,13 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -714,10 +772,13 @@
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="330" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="330" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -731,10 +792,13 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -748,10 +812,13 @@
         <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -765,10 +832,13 @@
         <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -782,10 +852,10 @@
         <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="315" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -796,64 +866,73 @@
         <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
     </row>
